--- a/5/5/5/Activos y pasivos del BCCh 1998 a 2021 - Mensual.xlsx
+++ b/5/5/5/Activos y pasivos del BCCh 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>Serie</t>
   </si>
@@ -920,6 +920,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q286"/>
+  <dimension ref="A1:Q287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16369,6 +16372,59 @@
         <v>39354</v>
       </c>
     </row>
+    <row r="287" spans="1:17">
+      <c r="A287" t="s">
+        <v>302</v>
+      </c>
+      <c r="B287">
+        <v>64783</v>
+      </c>
+      <c r="C287">
+        <v>41737</v>
+      </c>
+      <c r="D287">
+        <v>44325</v>
+      </c>
+      <c r="E287">
+        <v>-2589</v>
+      </c>
+      <c r="F287">
+        <v>23046</v>
+      </c>
+      <c r="G287">
+        <v>-46</v>
+      </c>
+      <c r="H287">
+        <v>348</v>
+      </c>
+      <c r="I287">
+        <v>24703</v>
+      </c>
+      <c r="J287">
+        <v>19282</v>
+      </c>
+      <c r="K287">
+        <v>5421</v>
+      </c>
+      <c r="L287">
+        <v>-1959</v>
+      </c>
+      <c r="M287">
+        <v>64783</v>
+      </c>
+      <c r="N287">
+        <v>22699</v>
+      </c>
+      <c r="O287">
+        <v>14913</v>
+      </c>
+      <c r="P287">
+        <v>7787</v>
+      </c>
+      <c r="Q287">
+        <v>42083</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
